--- a/БД для ТГ-бота.xlsx
+++ b/БД для ТГ-бота.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimak\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimak\PycharmProjects\telegrambot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2624417-C27D-4641-8EDA-DE6896F09793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C235D556-BD4C-40CB-B767-703968584D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -66,18 +66,6 @@
     <t>arrival_date</t>
   </si>
   <si>
-    <t>price_per_unit</t>
-  </si>
-  <si>
-    <t>order_id</t>
-  </si>
-  <si>
-    <t>quantity_ordered</t>
-  </si>
-  <si>
-    <t>product_id</t>
-  </si>
-  <si>
     <t>Иван</t>
   </si>
   <si>
@@ -93,18 +81,12 @@
     <t>Виктория</t>
   </si>
   <si>
-    <t>Викторовна</t>
-  </si>
-  <si>
     <t>женщина</t>
   </si>
   <si>
     <t>данные бабки</t>
   </si>
   <si>
-    <t>order_date</t>
-  </si>
-  <si>
     <t>заказ с датой</t>
   </si>
   <si>
@@ -148,6 +130,21 @@
   </si>
   <si>
     <t>тут нужно сделать обновление в таблице товаров при выполнении заказа</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>Викторова</t>
   </si>
 </sst>
 </file>
@@ -195,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -203,26 +200,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -505,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E95122-2FC7-42E4-A576-B91EBB60B2C5}">
   <dimension ref="A2:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,83 +539,83 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="E3" t="s">
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="E3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6"/>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="6"/>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C6" s="7"/>
     </row>
@@ -620,16 +633,16 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
+      <c r="E9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -644,7 +657,7 @@
         <v>45536</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -658,7 +671,7 @@
         <v>45488</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -667,19 +680,19 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E15" t="s">
+      <c r="E15" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="F15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -693,11 +706,11 @@
       <c r="G16" s="4">
         <v>4</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.3">
@@ -710,11 +723,11 @@
       <c r="G17" s="4">
         <v>1</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.3">
@@ -727,11 +740,11 @@
       <c r="G18" s="4">
         <v>2</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.3">
@@ -744,11 +757,11 @@
       <c r="G19" s="4">
         <v>3</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.3">
@@ -757,22 +770,22 @@
       </c>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E22" t="s">
+      <c r="E22" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="I22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -781,9 +794,9 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="6">
+        <v>21</v>
+      </c>
+      <c r="G23" s="5">
         <v>2</v>
       </c>
       <c r="H23" s="3">
@@ -793,7 +806,7 @@
         <v>150000</v>
       </c>
       <c r="J23" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="5:10" x14ac:dyDescent="0.3">
@@ -801,9 +814,9 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="6">
+        <v>22</v>
+      </c>
+      <c r="G24" s="5">
         <v>54</v>
       </c>
       <c r="H24" s="3">
@@ -813,7 +826,7 @@
         <v>30000</v>
       </c>
       <c r="J24" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="5:10" x14ac:dyDescent="0.3">
@@ -821,9 +834,9 @@
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="6">
+        <v>23</v>
+      </c>
+      <c r="G25" s="5">
         <v>190</v>
       </c>
       <c r="H25" s="3">
@@ -833,7 +846,7 @@
         <v>8000</v>
       </c>
       <c r="J25" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="5:10" x14ac:dyDescent="0.3">
@@ -841,9 +854,9 @@
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="6">
+        <v>24</v>
+      </c>
+      <c r="G26" s="5">
         <v>45</v>
       </c>
       <c r="H26" s="3">
@@ -853,7 +866,7 @@
         <v>3500</v>
       </c>
       <c r="J26" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
